--- a/excel/b_ner_unigram_probs.xlsx
+++ b/excel/b_ner_unigram_probs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-ORG</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8647342995169082</v>
+        <v>0.1071428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B-ORG</t>
+          <t>I-ORG</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01449275362318841</v>
+        <v>0.0761904761904762</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I-ORG</t>
+          <t>B-DATE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01030595813204509</v>
+        <v>0.05714285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -490,11 +490,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B-DATE</t>
+          <t>I-DATE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.007729468599033816</v>
+        <v>0.06904761904761905</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I-DATE</t>
+          <t>B-CARDINAL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.009339774557165861</v>
+        <v>0.1738095238095238</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B-CARDINAL</t>
+          <t>I-CARDINAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.02351046698872786</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>I-CARDINAL</t>
+          <t>B-NORP</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.004508856682769726</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B-NORP</t>
+          <t>B-PERCENT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.003864734299516908</v>
+        <v>0.1404761904761905</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B-PERCENT</t>
+          <t>I-PERCENT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01900161030595813</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I-PERCENT</t>
+          <t>B-PRODUCT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02415458937198068</v>
+        <v>0.007142857142857143</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B-PRODUCT</t>
+          <t>B-PERSON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.000966183574879227</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B-PERSON</t>
+          <t>B-LOC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.003864734299516908</v>
+        <v>0.01428571428571429</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B-LOC</t>
+          <t>I-LOC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001932367149758454</v>
+        <v>0.004761904761904762</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I-LOC</t>
+          <t>B-TIME</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0006441223832528181</v>
+        <v>0.0119047619047619</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B-TIME</t>
+          <t>I-TIME</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001610305958132045</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>I-TIME</t>
+          <t>I-NORP</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.003864734299516908</v>
+        <v>0.007142857142857143</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>I-NORP</t>
+          <t>B-QUANTITY</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.000966183574879227</v>
+        <v>0.009523809523809525</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B-QUANTITY</t>
+          <t>I-QUANTITY</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001288244766505636</v>
+        <v>0.009523809523809525</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>I-QUANTITY</t>
+          <t>B-GPE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.001288244766505636</v>
+        <v>0.004761904761904762</v>
       </c>
     </row>
     <row r="21">
@@ -698,24 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B-GPE</t>
+          <t>I-PERSON</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.0006441223832528181</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>I-PERSON</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.001288244766505636</v>
+        <v>0.009523809523809525</v>
       </c>
     </row>
   </sheetData>
